--- a/CourseraProgressTracking.xlsx
+++ b/CourseraProgressTracking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Coursera Java Programming Assignment Progress</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Assignment Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch GrayScale </t>
+  </si>
+  <si>
+    <t>Image Inversion</t>
+  </si>
+  <si>
+    <t>Finding a Gene</t>
+  </si>
+  <si>
+    <t>Finding Web Links</t>
+  </si>
+  <si>
+    <t>Word Play</t>
+  </si>
+  <si>
+    <t>Caesar Cipher</t>
   </si>
 </sst>
 </file>
@@ -61,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,8 +92,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,16 +128,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -117,6 +172,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,7 +482,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,12 +525,12 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:28" ht="15" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
@@ -473,70 +540,82 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:28" ht="15" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
